--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,42 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九时尚吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三渡峡私房菜吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉预支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨萌预支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小李伟预支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>租金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装潢工人保险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -399,7 +435,7 @@
     <col min="3" max="3" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,24 +445,33 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>270</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -435,6 +480,54 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>12560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -1,117 +1,442 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>开支项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>效果</t>
   </si>
   <si>
     <t>请五中姚梦林老师吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三渡峡私房菜吃饭</t>
   </si>
   <si>
     <t>请一中赵纯正老师吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九时尚吃饭</t>
   </si>
   <si>
     <t>请二中体育老师吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王家湾吃的，没有发票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九时尚吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三渡峡私房菜吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王家湾吃的，没有发票，叔叔给的钱</t>
   </si>
   <si>
     <t>杨春辉预支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>杨萌预支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设计费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小李伟预支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>租金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>装潢工人保险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>都亭所四包中华</t>
+  </si>
+  <si>
+    <t>叔叔给的钱</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -119,9 +444,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -130,11 +697,58 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -422,17 +1036,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -443,26 +1058,26 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>240</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>270</v>
@@ -471,18 +1086,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>310</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -490,7 +1105,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -498,7 +1113,7 @@
         <v>12560</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -506,7 +1121,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -514,7 +1129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -522,7 +1137,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -530,37 +1145,54 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>开支项</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>叔叔给的钱</t>
+  </si>
+  <si>
+    <t>买两条荷花烟</t>
+  </si>
+  <si>
+    <t>有时候吃饭需要用到烟</t>
   </si>
 </sst>
 </file>
@@ -82,7 +88,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,43 +99,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +127,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -165,48 +165,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,19 +197,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -251,6 +250,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -270,168 +431,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,11 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,21 +494,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,16 +519,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,148 +546,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1154,6 +1153,17 @@
       </c>
       <c r="C11" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>712</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>开支项</t>
   </si>
@@ -54,7 +54,7 @@
     <t>杨萌预支</t>
   </si>
   <si>
-    <t>设计费</t>
+    <t>装潢设计费</t>
   </si>
   <si>
     <t>小李伟预支</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>有时候吃饭需要用到烟</t>
+  </si>
+  <si>
+    <t>代办公司营业执照</t>
   </si>
 </sst>
 </file>
@@ -84,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1037,10 +1040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1109,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>12560</v>
+        <v>13660</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1117,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1125,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1164,6 +1167,14 @@
       </c>
       <c r="C12" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>开支项</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>代办公司营业执照</t>
+  </si>
+  <si>
+    <t>请凉雾中学老师吃饭</t>
+  </si>
+  <si>
+    <t>一条荷花烟</t>
   </si>
 </sst>
 </file>
@@ -86,10 +92,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -102,6 +108,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,9 +166,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,31 +204,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,66 +249,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,6 +259,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -277,25 +331,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,126 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,17 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +497,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,25 +537,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,127 +570,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1040,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>13660</v>
+        <v>15737</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1175,6 +1181,17 @@
       </c>
       <c r="B13">
         <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>700</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>开支项</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>一条荷花烟</t>
+  </si>
+  <si>
+    <t>思源中学陈主任洗脚</t>
+  </si>
+  <si>
+    <t>民中、都中、都小、实小</t>
+  </si>
+  <si>
+    <t>4包烟</t>
   </si>
 </sst>
 </file>
@@ -92,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -107,19 +116,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -133,6 +158,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,12 +200,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -181,38 +222,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,19 +244,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -259,6 +268,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,168 +449,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,16 +462,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -473,15 +482,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -512,6 +527,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,21 +559,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -558,151 +567,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1046,15 +1058,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1118,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>15737</v>
+        <v>21639</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1192,6 +1204,31 @@
       </c>
       <c r="C14" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>147258</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>开支项</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>4包烟</t>
+  </si>
+  <si>
+    <t>请韩总吃饭</t>
   </si>
 </sst>
 </file>
@@ -101,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -116,9 +119,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,127 +261,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -268,6 +271,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -281,174 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,16 +465,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -482,6 +485,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,21 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -527,15 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +547,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1225,10 +1228,28 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
       <c r="B17">
-        <f>SUM(B2:B16)</f>
-        <v>147258</v>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>2675</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -119,12 +119,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -132,9 +199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,16 +216,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,94 +246,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,6 +271,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -283,120 +445,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -404,54 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,39 +462,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -530,20 +497,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +518,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +582,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1103,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -1203,7 +1203,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>700</v>
+        <v>760</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>开支项</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>请韩总吃饭</t>
+  </si>
+  <si>
+    <t>复印图纸</t>
+  </si>
+  <si>
+    <t>发传单工资</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,7 +125,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,15 +233,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,35 +248,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,69 +263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,187 +277,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,6 +468,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -476,6 +521,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,65 +568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -570,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1061,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1250,6 +1256,30 @@
       </c>
       <c r="B19">
         <v>2675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -111,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,7 +125,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,46 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,68 +261,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +277,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -289,25 +397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,49 +409,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,91 +457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,41 +471,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,26 +491,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,6 +518,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1067,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
@@ -1280,6 +1280,14 @@
       </c>
       <c r="B22">
         <v>423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -125,7 +125,136 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,135 +267,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -277,25 +277,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,13 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,13 +403,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,109 +427,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,11 +471,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,30 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +576,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,133 +588,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,10 +1067,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1288,6 +1288,22 @@
       </c>
       <c r="B23">
         <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>开支项</t>
   </si>
@@ -45,9 +45,6 @@
     <t>请二中体育老师吃饭</t>
   </si>
   <si>
-    <t>王家湾吃的，没有发票，叔叔给的钱</t>
-  </si>
-  <si>
     <t>杨春辉预支</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t>都亭所四包中华</t>
-  </si>
-  <si>
-    <t>叔叔给的钱</t>
   </si>
   <si>
     <t>买两条荷花烟</t>
@@ -131,36 +125,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -184,6 +148,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -191,48 +186,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,19 +218,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -277,6 +271,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -296,168 +452,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,11 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,21 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,16 +540,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,127 +582,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,10 +1061,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1115,20 +1109,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>310</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>8000</v>
@@ -1136,7 +1127,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>21639</v>
@@ -1144,7 +1135,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2000</v>
@@ -1152,7 +1143,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>2000</v>
@@ -1160,7 +1151,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>105000</v>
@@ -1168,37 +1159,34 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>5000</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>200</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>712</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>800</v>
@@ -1206,18 +1194,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>760</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>387</v>
@@ -1225,18 +1213,18 @@
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>6000</v>
@@ -1244,7 +1232,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>330</v>
@@ -1252,7 +1240,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>2675</v>
@@ -1260,7 +1248,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>35</v>
@@ -1268,7 +1256,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -1276,7 +1264,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>423</v>
@@ -1284,7 +1272,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>125</v>
@@ -1292,7 +1280,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>900</v>
@@ -1300,10 +1288,16 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26">
+        <f>SUM(B2:B25)</f>
+        <v>167956</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>开支项</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>发传单工资</t>
+  </si>
+  <si>
+    <t>买A4纸</t>
+  </si>
+  <si>
+    <t>请初中老师吃饭</t>
+  </si>
+  <si>
+    <t>请高中老师吃饭</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1294,10 +1303,36 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
       <c r="B26">
-        <f>SUM(B2:B25)</f>
-        <v>167956</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>开支项</t>
   </si>
@@ -106,6 +106,21 @@
   </si>
   <si>
     <t>请高中老师吃饭</t>
+  </si>
+  <si>
+    <t>给孟总买烟</t>
+  </si>
+  <si>
+    <t>晒消防图纸</t>
+  </si>
+  <si>
+    <t>瓷砖定钱</t>
+  </si>
+  <si>
+    <t>请严校长吃饭</t>
+  </si>
+  <si>
+    <t>封墙+粗砂</t>
   </si>
 </sst>
 </file>
@@ -113,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -129,6 +144,37 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,37 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -280,6 +295,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -299,30 +338,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,10 +606,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,7 +624,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -618,28 +633,28 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,7 +666,7 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -681,40 +696,40 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1070,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1333,6 +1348,54 @@
       </c>
       <c r="B29">
         <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>20860</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -128,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,6 +149,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -157,32 +194,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,31 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,37 +270,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,6 +343,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,18 +463,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,96 +476,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,26 +504,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,11 +545,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,25 +562,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,130 +609,130 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -143,12 +143,70 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -157,14 +215,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -172,44 +239,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -225,8 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,47 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,21 +486,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,15 +500,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,11 +519,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,17 +586,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,7 +606,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,10 +615,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,112 +627,112 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1178,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>105000</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1396,6 +1396,12 @@
       </c>
       <c r="B35">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36">
+        <f>SUM(B2:B35)</f>
+        <v>301138</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="15825" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,8 +128,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -143,28 +143,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,44 +221,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -231,17 +240,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +295,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -307,85 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,85 +463,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +486,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,21 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,19 +606,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -627,22 +627,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -651,88 +651,88 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,8 +1087,8 @@
   <sheetPr/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="8430"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>开支项</t>
   </si>
@@ -121,6 +121,15 @@
   </si>
   <si>
     <t>封墙+粗砂</t>
+  </si>
+  <si>
+    <t>消防盖章</t>
+  </si>
+  <si>
+    <t>叔叔出钱</t>
+  </si>
+  <si>
+    <t>贴砖吴师傅预支</t>
   </si>
 </sst>
 </file>
@@ -128,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -157,6 +166,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -165,6 +189,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -173,60 +213,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +251,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -248,39 +267,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,17 +513,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,24 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,16 +573,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1398,10 +1407,26 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
       <c r="B36">
-        <f>SUM(B2:B35)</f>
-        <v>301138</v>
+        <v>3000</v>
+      </c>
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>2000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -51,37 +51,43 @@
     <t>杨萌预支</t>
   </si>
   <si>
+    <t>买两条荷花烟</t>
+  </si>
+  <si>
     <t>装潢设计费</t>
   </si>
   <si>
+    <t>请凉雾中学老师吃饭</t>
+  </si>
+  <si>
     <t>小李伟预支</t>
   </si>
   <si>
+    <t>思源中学陈主任洗脚</t>
+  </si>
+  <si>
     <t>租金</t>
   </si>
   <si>
     <t>装潢工人保险</t>
   </si>
   <si>
+    <t>发传单工资</t>
+  </si>
+  <si>
     <t>都亭所四包中华</t>
   </si>
   <si>
-    <t>买两条荷花烟</t>
-  </si>
-  <si>
     <t>有时候吃饭需要用到烟</t>
   </si>
   <si>
     <t>代办公司营业执照</t>
   </si>
   <si>
-    <t>请凉雾中学老师吃饭</t>
-  </si>
-  <si>
     <t>一条荷花烟</t>
   </si>
   <si>
-    <t>思源中学陈主任洗脚</t>
+    <t>买A4纸</t>
   </si>
   <si>
     <t>民中、都中、都小、实小</t>
@@ -90,22 +96,16 @@
     <t>4包烟</t>
   </si>
   <si>
+    <t>请初中老师吃饭</t>
+  </si>
+  <si>
+    <t>请高中老师吃饭</t>
+  </si>
+  <si>
     <t>请韩总吃饭</t>
   </si>
   <si>
     <t>复印图纸</t>
-  </si>
-  <si>
-    <t>发传单工资</t>
-  </si>
-  <si>
-    <t>买A4纸</t>
-  </si>
-  <si>
-    <t>请初中老师吃饭</t>
-  </si>
-  <si>
-    <t>请高中老师吃饭</t>
   </si>
   <si>
     <t>给孟总买烟</t>
@@ -137,10 +137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,6 +153,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,41 +204,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,66 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,6 +304,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -322,19 +352,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,144 +485,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,17 +522,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,6 +542,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,25 +582,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,145 +603,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1094,16 +1094,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="31.75" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1120,7 +1121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1130,8 +1131,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1141,134 +1148,228 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>310</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5">
         <v>8000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>21639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6">
         <v>21639</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>205000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>712</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>800</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>760</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>387</v>
       </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:3">
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>6000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>330</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H2:H17)</f>
+        <v>29221</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1281,7 +1382,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B20">
         <v>35</v>
@@ -1289,7 +1390,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>100</v>
@@ -1305,7 +1406,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>125</v>
@@ -1321,7 +1422,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>10000</v>
@@ -1337,7 +1438,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>150</v>
@@ -1345,7 +1446,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -1353,7 +1454,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>240</v>
@@ -1401,7 +1502,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>4000</v>

--- a/新学校开支.xlsx
+++ b/新学校开支.xlsx
@@ -158,6 +158,120 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -166,24 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,104 +294,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -304,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,35 +498,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,20 +539,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +560,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -603,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
